--- a/spliced/struggle/2023-04-06_17-41-39/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-41-39/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01706874370574948</v>
+        <v>0.08896994590759319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07629761099815366</v>
+        <v>-0.11671480536461</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1732735317200423</v>
+        <v>0.04848458990454618</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2842050492763519</v>
+        <v>-0.0250454749912023</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.60824179649353</v>
+        <v>0.0326812900602817</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3984368443489074</v>
+        <v>0.0108428578823804</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2285218238830561</v>
+        <v>-0.06001234054565427</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.162128377705812</v>
+        <v>0.2669965513050556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1944056674838058</v>
+        <v>0.1866837395355105</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5183191895484924</v>
+        <v>0.0192422550171613</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.74109148979187</v>
+        <v>-0.0277943685650825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1130100712180137</v>
+        <v>-0.0045814891345798</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1096982955932607</v>
+        <v>-0.111260414123535</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9903637319803219</v>
+        <v>0.1850093007087709</v>
       </c>
       <c r="E4" t="n">
-        <v>1.168615095317362</v>
+        <v>-0.02702043950557642</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.485485166311264</v>
+        <v>-0.0242818929255008</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.733940958976746</v>
+        <v>0.0114537235349416</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1319468915462494</v>
+        <v>0.0073303831741213</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9691734313964835</v>
+        <v>0.04686117172241161</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9581446647644</v>
+        <v>-0.03032520040869657</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.859957635402668</v>
+        <v>0.02842492796480637</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8013024926185608</v>
+        <v>0.0167987942695617</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9908234477043152</v>
+        <v>0.1464549452066421</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1090394482016563</v>
+        <v>0.5288565754890442</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1940504908561733</v>
+        <v>0.01706874370574948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2241474241018375</v>
+        <v>0.07629761099815366</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.310114443302172</v>
+        <v>-0.1732735317200423</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1398881375789642</v>
+        <v>-0.2842050492763519</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2066251635551452</v>
+        <v>-2.60824179649353</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2506074607372284</v>
+        <v>-0.3984368443489074</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.58094030618667</v>
+        <v>-0.2285218238830561</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.941463194787501</v>
+        <v>-0.162128377705812</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.144656896591187</v>
+        <v>0.1944056674838058</v>
       </c>
       <c r="F7" t="n">
-        <v>1.494939923286438</v>
+        <v>-0.5183191895484924</v>
       </c>
       <c r="G7" t="n">
-        <v>3.902817964553833</v>
+        <v>-3.74109148979187</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2788599729537964</v>
+        <v>0.1130100712180137</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.82746779918671</v>
+        <v>0.1096982955932607</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9869420528411925</v>
+        <v>-0.9903637319803219</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4169094562530551</v>
+        <v>1.168615095317362</v>
       </c>
       <c r="F8" t="n">
-        <v>1.451415777206421</v>
+        <v>-0.485485166311264</v>
       </c>
       <c r="G8" t="n">
-        <v>5.435784339904785</v>
+        <v>-1.733940958976746</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.1319468915462494</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.769100129604333</v>
+        <v>0.9691734313964835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7612166106700828</v>
+        <v>1.9581446647644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9901726245880039</v>
+        <v>-7.859957635402668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4634940028190613</v>
+        <v>-0.8013024926185608</v>
       </c>
       <c r="G9" t="n">
-        <v>1.852907061576844</v>
+        <v>-0.9908234477043152</v>
       </c>
       <c r="H9" t="n">
-        <v>0.299934834241867</v>
+        <v>-0.1090394482016563</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.232726603746395</v>
+        <v>0.1940504908561733</v>
       </c>
       <c r="D10" t="n">
-        <v>2.152586340904233</v>
+        <v>0.2241474241018375</v>
       </c>
       <c r="E10" t="n">
-        <v>3.093920886516565</v>
+        <v>-5.310114443302172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380555480718612</v>
+        <v>-0.1398881375789642</v>
       </c>
       <c r="G10" t="n">
-        <v>0.99876469373703</v>
+        <v>0.2066251635551452</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2206750661134719</v>
+        <v>-0.2506074607372284</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.777266740798977</v>
+        <v>-1.58094030618667</v>
       </c>
       <c r="D11" t="n">
-        <v>1.212506279349337</v>
+        <v>-1.941463194787501</v>
       </c>
       <c r="E11" t="n">
-        <v>2.062903136014953</v>
+        <v>-1.144656896591187</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1919644027948379</v>
+        <v>1.494939923286438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2603813111782074</v>
+        <v>3.902817964553833</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5108360648155212</v>
+        <v>-0.2788599729537964</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.723967790603678</v>
+        <v>-1.82746779918671</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.365190558135525</v>
+        <v>-0.9869420528411925</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.315693378448508</v>
+        <v>-0.4169094562530551</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1438587605953216</v>
+        <v>1.451415777206421</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.665524125099182</v>
+        <v>5.435784339904785</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2296853363513946</v>
+        <v>0.09239336848258969</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.335351765155792</v>
+        <v>-1.769100129604333</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1078430823981759</v>
+        <v>0.7612166106700828</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2542362809181207</v>
+        <v>0.9901726245880039</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.088409185409546</v>
+        <v>0.4634940028190613</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.648226261138916</v>
+        <v>1.852907061576844</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.946077525615692</v>
+        <v>0.299934834241867</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.176319241523743</v>
+        <v>-6.232726603746395</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.169533859938384</v>
+        <v>2.152586340904233</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.148270010948179</v>
+        <v>3.093920886516565</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.942259669303894</v>
+        <v>0.1380555480718612</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.754544019699097</v>
+        <v>0.99876469373703</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0618501044809818</v>
+        <v>-0.2206750661134719</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.89803910255433</v>
+        <v>-6.777266740798977</v>
       </c>
       <c r="D15" t="n">
-        <v>1.068912088871008</v>
+        <v>1.212506279349337</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.883550018072123</v>
+        <v>2.062903136014953</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7225008606910706</v>
+        <v>-0.1919644027948379</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.54196310043335</v>
+        <v>0.2603813111782074</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5018258094787598</v>
+        <v>-0.5108360648155212</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.4242868423461992</v>
+        <v>3.723967790603678</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01184737682341952</v>
+        <v>-2.365190558135525</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.823844432830806</v>
+        <v>-3.315693378448508</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4671591818332672</v>
+        <v>-0.1438587605953216</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.45172131061554</v>
+        <v>-1.665524125099182</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3419318199157715</v>
+        <v>0.2296853363513946</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.959070533514023</v>
+        <v>-2.335351765155792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.853676103055477</v>
+        <v>-0.1078430823981759</v>
       </c>
       <c r="E17" t="n">
-        <v>3.545509129762649</v>
+        <v>-0.2542362809181207</v>
       </c>
       <c r="F17" t="n">
-        <v>0.116827979683876</v>
+        <v>-1.088409185409546</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5007568001747131</v>
+        <v>-4.648226261138916</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3149010241031647</v>
+        <v>-0.946077525615692</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4488477408886036</v>
+        <v>-2.176319241523743</v>
       </c>
       <c r="D18" t="n">
-        <v>2.171596139669413</v>
+        <v>-0.169533859938384</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5545313358307062</v>
+        <v>-1.148270010948179</v>
       </c>
       <c r="F18" t="n">
-        <v>1.036791086196899</v>
+        <v>-0.942259669303894</v>
       </c>
       <c r="G18" t="n">
-        <v>4.31255578994751</v>
+        <v>-2.754544019699097</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2199114859104156</v>
+        <v>0.0618501044809818</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.753711834549896</v>
+        <v>-1.89803910255433</v>
       </c>
       <c r="D19" t="n">
-        <v>1.106546383351094</v>
+        <v>1.068912088871008</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5750183463096592</v>
+        <v>-3.883550018072123</v>
       </c>
       <c r="F19" t="n">
-        <v>1.680184841156006</v>
+        <v>-0.7225008606910706</v>
       </c>
       <c r="G19" t="n">
-        <v>4.684267520904541</v>
+        <v>-2.54196310043335</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0536034256219863</v>
+        <v>-0.5018258094787598</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-6.07151210308075</v>
+        <v>-0.4242868423461992</v>
       </c>
       <c r="D20" t="n">
-        <v>1.909203633666039</v>
+        <v>-0.01184737682341952</v>
       </c>
       <c r="E20" t="n">
-        <v>4.961617231369019</v>
+        <v>-4.823844432830806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2167044430971145</v>
+        <v>-0.4671591818332672</v>
       </c>
       <c r="G20" t="n">
-        <v>1.493718266487122</v>
+        <v>-1.45172131061554</v>
       </c>
       <c r="H20" t="n">
-        <v>0.555429220199585</v>
+        <v>-0.3419318199157715</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.959070533514023</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.853676103055477</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.545509129762649</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.116827979683876</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5007568001747131</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3149010241031647</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4488477408886036</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.171596139669413</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5545313358307062</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.036791086196899</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.31255578994751</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.2199114859104156</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.753711834549896</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.106546383351094</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5750183463096592</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.680184841156006</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.684267520904541</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.0536034256219863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.07151210308075</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.909203633666039</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.961617231369019</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2167044430971145</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.493718266487122</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.555429220199585</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>-7.940525859594342</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>0.5168425776064485</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>1.82176046073439</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>-0.7371616363525391</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>0.4766276180744171</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>-0.2034181207418441</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5248832702637101</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.431172959506501</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.120043188333502</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1747074574232101</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.5407684445381165</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.012980886735022</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4282075166702048</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.7951091900468019</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.767483308911331</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2935207486152649</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.132696866989136</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0025961773935705</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.543609619140639</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4462372660637008</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.760738492012012</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1869247704744339</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.6145304441452026</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.2397646158933639</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2467263936996389</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1943315342068692</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.037849001586441</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.1950187236070633</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0448985956609249</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.3084869384765625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9171624183654843</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3103487230837345</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1225722581148094</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0444404482841491</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1437060534954071</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.3220787048339844</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.926007807254792</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2953229788690807</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.136403992772098</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2638937830924988</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3306308090686798</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3280346393585205</v>
       </c>
     </row>
   </sheetData>
